--- a/计划.xlsx
+++ b/计划.xlsx
@@ -1,112 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41851\Desktop\SparseGraphDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23122DCB-89E9-495E-9038-307F9877C43B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20981B01-CE65-469E-9EDD-F190E030A199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4142C850-800E-406C-9A26-EDB77F9E4F13}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4142C850-800E-406C-9A26-EDB77F9E4F13}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="时间表" sheetId="2" r:id="rId1"/>
+    <sheet name="方案框图" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>实验效果良好</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>时间节点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>实验效果不理想</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整方案，代码工作，实验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>放弃方案</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同12.28时间节点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F4实验运行，论文中文Abs与Intro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3实验，论文大体中文框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文英文写作，F1实验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>论文写作</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>F2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对于目标域不停地使用来自源域的decoder重建A并放入ENCODER中进行训练</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将Discriminator放在重建识别部分，利用分布对齐将</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将z作为Discriminator的输入，但是暂时先不考虑节点对的重建，而是直接在节点对上做分布对齐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成方案F1的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行方案F1的实验，主要包括对于中间变分分布的选取（无变分，高斯加gumbel，仅有高斯），是否对于负节点对进行分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章计划：完成的abstract和部分Introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验计划：从现有的结果来看，由于节点对在源域的表现上比较差，所以先仅在源域上测试一下有效的基于节点对的VGAE模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction和reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -120,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +117,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -142,24 +138,227 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -183,15 +382,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>40005</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106697</xdr:rowOff>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -206,7 +405,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -214,14 +413,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="26567"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390900" y="1304925"/>
-          <a:ext cx="7029450" cy="3116597"/>
+          <a:off x="3072765" y="3718560"/>
+          <a:ext cx="6351270" cy="2232677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>58592</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33F1820-974A-4978-A0E3-641E8D98727D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="21717"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3040380" y="15240"/>
+          <a:ext cx="6192692" cy="2926080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -529,96 +776,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E56008-1BFC-41F5-998D-DE655D232BD7}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01696A07-063E-454C-AA89-A8370DC2BC05}">
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24">
+        <v>44179</v>
+      </c>
+      <c r="C1" s="13">
+        <v>44180</v>
+      </c>
+      <c r="D1" s="13">
+        <v>44181</v>
+      </c>
+      <c r="E1" s="13">
+        <v>44182</v>
+      </c>
+      <c r="F1" s="12">
+        <v>44183</v>
+      </c>
+      <c r="G1" s="11">
+        <v>44184</v>
+      </c>
+      <c r="H1" s="13">
+        <v>44185</v>
+      </c>
+      <c r="I1" s="14">
+        <v>44186.21</v>
+      </c>
+      <c r="J1" s="11">
+        <v>44187</v>
+      </c>
+      <c r="K1" s="13">
+        <v>44188</v>
+      </c>
+      <c r="L1" s="13">
+        <v>44189</v>
+      </c>
+      <c r="M1" s="13">
+        <v>44190</v>
+      </c>
+      <c r="N1" s="13">
+        <v>44191</v>
+      </c>
+      <c r="O1" s="12">
+        <v>44192</v>
+      </c>
+      <c r="P1" s="15">
+        <v>44193</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>44194</v>
+      </c>
+      <c r="R1" s="2">
+        <v>44195</v>
+      </c>
+      <c r="S1" s="2">
+        <v>44196</v>
+      </c>
+      <c r="T1" s="2">
+        <v>44197</v>
+      </c>
+      <c r="U1" s="2">
+        <v>44198</v>
+      </c>
+      <c r="V1" s="2">
+        <v>44199</v>
+      </c>
+      <c r="W1" s="15">
+        <v>44200</v>
+      </c>
+      <c r="X1" s="2">
+        <v>44201</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>44202</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>44203</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>44204</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>44205</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>44206</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>44207</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>44208</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>44209</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>44210</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>44211</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>44212</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>44213</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>44214</v>
+      </c>
+      <c r="AL1" s="16">
+        <v>44215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="207" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="10"/>
+    </row>
+    <row r="3" spans="1:38" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="P3:V3"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="J3:O3"/>
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E56008-1BFC-41F5-998D-DE655D232BD7}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>12.21</v>
-      </c>
-      <c r="D1">
-        <v>12.28</v>
-      </c>
-      <c r="F1">
-        <v>1.4</v>
-      </c>
-      <c r="H1">
-        <v>1.1100000000000001</v>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="19" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\41851\Desktop\SparseGraphDA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20981B01-CE65-469E-9EDD-F190E030A199}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3045CA4B-69F8-4D3A-AF81-4F3C59FBF85B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4142C850-800E-406C-9A26-EDB77F9E4F13}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4142C850-800E-406C-9A26-EDB77F9E4F13}"/>
   </bookViews>
   <sheets>
     <sheet name="时间表" sheetId="2" r:id="rId1"/>
@@ -36,14 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于目标域不停地使用来自源域的decoder重建A并放入ENCODER中进行训练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将z作为Discriminator的输入，但是暂时先不考虑节点对的重建，而是直接在节点对上做分布对齐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,11 +64,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction和reference</t>
+    <t>Abstract提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction和reference完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖上阶段结果做计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -284,31 +284,64 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -318,24 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,9 +360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,8 +369,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,23 +393,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>40005</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2676524</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152417</xdr:rowOff>
+      <xdr:colOff>123501</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3190875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C23DAC-2C43-4915-9139-9DAE942E4DA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDC1CFC-2BDA-4F3F-9B36-44D3CA1652EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -413,62 +425,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect t="26567"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3072765" y="3718560"/>
-          <a:ext cx="6351270" cy="2232677"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>58592</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33F1820-974A-4978-A0E3-641E8D98727D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
         <a:srcRect t="21717"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3040380" y="15240"/>
-          <a:ext cx="6192692" cy="2926080"/>
+          <a:off x="3362324" y="85725"/>
+          <a:ext cx="7124377" cy="3105150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,62 +742,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01696A07-063E-454C-AA89-A8370DC2BC05}">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:V2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="2" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24">
+      <c r="B1" s="12">
         <v>44179</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="7">
         <v>44180</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="7">
         <v>44181</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="7">
         <v>44182</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="6">
         <v>44183</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="5">
         <v>44184</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="7">
         <v>44185</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="8">
         <v>44186.21</v>
       </c>
-      <c r="J1" s="11">
+      <c r="J1" s="5">
         <v>44187</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="7">
         <v>44188</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="7">
         <v>44189</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="7">
         <v>44190</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="7">
         <v>44191</v>
       </c>
-      <c r="O1" s="12">
+      <c r="O1" s="6">
         <v>44192</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="9">
         <v>44193</v>
       </c>
       <c r="Q1" s="2">
@@ -855,7 +819,7 @@
       <c r="V1" s="2">
         <v>44199</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="9">
         <v>44200</v>
       </c>
       <c r="X1" s="2">
@@ -882,7 +846,7 @@
       <c r="AE1" s="2">
         <v>44208</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="10">
         <v>44209</v>
       </c>
       <c r="AG1" s="2">
@@ -900,123 +864,145 @@
       <c r="AK1" s="2">
         <v>44214</v>
       </c>
-      <c r="AL1" s="16">
+      <c r="AL1" s="10">
         <v>44215</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="1" customFormat="1" ht="207" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:38" s="1" customFormat="1" ht="207" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="21"/>
+    </row>
+    <row r="3" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="8" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="15"/>
+      <c r="AF3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="10"/>
-    </row>
-    <row r="3" spans="1:38" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="P3:V3"/>
-    <mergeCell ref="P2:V2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:O2"/>
     <mergeCell ref="J3:O3"/>
     <mergeCell ref="B3:I3"/>
+    <mergeCell ref="P2:AL2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E56008-1BFC-41F5-998D-DE655D232BD7}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
